--- a/KEngine.UnityProject/Product/SettingSource/Example.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>Id</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>中文</t>
+  </si>
+  <si>
+    <t>d,e,f</t>
   </si>
 </sst>
 </file>
@@ -74,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -99,7 +102,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -111,16 +120,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -131,42 +139,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -185,6 +200,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -199,26 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -238,6 +241,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -250,67 +271,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,6 +376,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -384,15 +396,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,17 +424,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,11 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,143 +487,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,15 +634,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -661,34 +655,34 @@
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="输入" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
-    <cellStyle name="差" xfId="11"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
+    <cellStyle name="警告文本" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
-    <cellStyle name="标题 3" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
-    <cellStyle name="输出" xfId="25"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
+    <cellStyle name="链接单元格" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="链接单元格" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
-    <cellStyle name="强调文字颜色 1" xfId="35"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
@@ -1106,7 +1100,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1147,19 +1141,19 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1185,12 +1179,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/KEngine.UnityProject/Product/SettingSource/Example.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21480" windowHeight="9300"/>
+    <workbookView windowWidth="28710" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>Id</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>d,e,f</t>
+  </si>
+  <si>
+    <t>一个单词</t>
+  </si>
+  <si>
+    <t>g,h,z</t>
   </si>
 </sst>
 </file>
@@ -102,33 +108,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -139,29 +128,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <i/>
@@ -169,19 +197,6 @@
       <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -192,36 +207,27 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -241,91 +247,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,15 +382,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -411,6 +408,21 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,17 +460,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,7 +493,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,130 +502,130 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -655,34 +661,34 @@
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="输入" xfId="8"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
+    <cellStyle name="差" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle name="警告文本" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
+    <cellStyle name="标题 3" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
+    <cellStyle name="输出" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="链接单元格" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
+    <cellStyle name="强调文字颜色 1" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
@@ -1097,13 +1103,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
@@ -1188,6 +1194,17 @@
       </c>
       <c r="C6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/KEngine.UnityProject/Product/SettingSource/Example.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13650"/>
+    <workbookView windowWidth="28710" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>一个单词</t>
   </si>
   <si>
-    <t>g,h,z</t>
+    <t>g,h,z,e,g,g</t>
   </si>
 </sst>
 </file>
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -108,16 +108,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -134,7 +127,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -147,27 +153,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -181,53 +181,53 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -247,13 +247,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,13 +283,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,55 +325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,21 +398,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="63"/>
       </left>
       <right style="thin">
@@ -436,15 +421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -463,8 +439,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,6 +470,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -493,7 +493,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,130 +502,130 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -661,34 +661,34 @@
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="输入" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
-    <cellStyle name="差" xfId="11"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
+    <cellStyle name="警告文本" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
-    <cellStyle name="标题 3" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
-    <cellStyle name="输出" xfId="25"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
+    <cellStyle name="链接单元格" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="链接单元格" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
-    <cellStyle name="强调文字颜色 1" xfId="35"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>

--- a/KEngine.UnityProject/Product/SettingSource/Example.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="12660"/>
+    <workbookView windowWidth="28710" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>Test1</t>
   </si>
   <si>
-    <t>1,2,3</t>
+    <t>1,2,3,4,5,6,7,8,9</t>
   </si>
   <si>
     <t>Test2</t>
@@ -75,7 +75,7 @@
     <t>一个单词</t>
   </si>
   <si>
-    <t>g,h,z,e,g,g</t>
+    <t>g,h,z,e,g,o,i,p</t>
   </si>
 </sst>
 </file>
@@ -84,8 +84,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -107,6 +107,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -127,33 +147,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -173,61 +207,27 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -247,25 +247,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,55 +313,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,6 +398,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="63"/>
       </left>
       <right style="thin">
@@ -421,6 +436,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -439,23 +463,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,15 +479,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -493,7 +493,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,130 +502,130 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -661,34 +661,34 @@
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="输入" xfId="8"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
+    <cellStyle name="差" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle name="警告文本" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
+    <cellStyle name="标题 3" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
+    <cellStyle name="输出" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="链接单元格" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
+    <cellStyle name="强调文字颜色 1" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>

--- a/KEngine.UnityProject/Product/SettingSource/Example.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="12630"/>
+    <workbookView windowWidth="14040" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>Id</t>
   </si>
@@ -27,13 +27,16 @@
     <t>StrArray</t>
   </si>
   <si>
+    <t>StrIntMap</t>
+  </si>
+  <si>
     <t>CommentA</t>
   </si>
   <si>
     <t>#B</t>
   </si>
   <si>
-    <t>int,0,pk</t>
+    <t>int/0/pk</t>
   </si>
   <si>
     <t>string</t>
@@ -42,6 +45,12 @@
     <t>string[]</t>
   </si>
   <si>
+    <t>Dictionary&lt;string,int&gt;</t>
+  </si>
+  <si>
+    <t>map[string]int</t>
+  </si>
+  <si>
     <t>ID Column/编号</t>
   </si>
   <si>
@@ -51,6 +60,9 @@
     <t>ArrayTest/测试数组</t>
   </si>
   <si>
+    <t>字典测试</t>
+  </si>
+  <si>
     <t>CommentB</t>
   </si>
   <si>
@@ -60,10 +72,16 @@
     <t>1,2,3,4,5,6,7,8,9</t>
   </si>
   <si>
+    <t>strTest:1,strTest2:2</t>
+  </si>
+  <si>
     <t>Test2</t>
   </si>
   <si>
     <t>a,b,c</t>
+  </si>
+  <si>
+    <t>A:12,B:43</t>
   </si>
   <si>
     <t>中文</t>
@@ -83,9 +101,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -107,28 +125,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -140,27 +165,39 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -172,62 +209,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -253,13 +271,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,61 +343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,6 +400,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -393,6 +440,21 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -412,6 +474,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -426,59 +497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -493,7 +511,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,130 +520,130 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -661,34 +679,34 @@
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="输入" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
-    <cellStyle name="差" xfId="11"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
+    <cellStyle name="警告文本" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
-    <cellStyle name="标题 3" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
-    <cellStyle name="输出" xfId="25"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
+    <cellStyle name="链接单元格" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="链接单元格" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
-    <cellStyle name="强调文字颜色 1" xfId="35"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
@@ -1103,20 +1121,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="3" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,60 +1148,77 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1190,10 +1226,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1201,10 +1237,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/KEngine.UnityProject/Product/SettingSource/Example.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Example.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14040" windowHeight="5460"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$8</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$A$4:$F$8</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>Id</t>
   </si>
@@ -63,7 +67,10 @@
     <t>字典测试</t>
   </si>
   <si>
-    <t>CommentB</t>
+    <t>CommentA注释列</t>
+  </si>
+  <si>
+    <t>CommentB井号注释列</t>
   </si>
   <si>
     <t>Test1</t>
@@ -81,7 +88,7 @@
     <t>a,b,c</t>
   </si>
   <si>
-    <t>A:12,B:43</t>
+    <t>A:12,B:43,C:1024</t>
   </si>
   <si>
     <t>中文</t>
@@ -90,10 +97,25 @@
     <t>d,e,f</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>注释行</t>
+  </si>
+  <si>
     <t>一个单词</t>
   </si>
   <si>
     <t>g,h,z,e,g,o,i,p</t>
+  </si>
+  <si>
+    <t>FFF:123</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>井号开头的，注释行</t>
   </si>
 </sst>
 </file>
@@ -101,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,34 +148,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -166,40 +175,67 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -209,9 +245,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -223,27 +259,13 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -271,85 +293,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,35 +422,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -444,17 +437,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,9 +463,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,157 +495,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,59 +689,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="强调文字颜色 4" xfId="4"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
-    <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
-    <cellStyle name="计算" xfId="26"/>
-    <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
-    <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
-    <cellStyle name="汇总" xfId="31"/>
-    <cellStyle name="好" xfId="32"/>
-    <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="强调文字颜色 3" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="强调文字颜色 5" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -838,71 +863,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1121,18 +1146,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1187,10 +1218,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1198,13 +1229,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1212,13 +1243,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1226,24 +1257,44 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:F8"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>

--- a/KEngine.UnityProject/Product/SettingSource/Example.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$8</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$A$4:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$G$8</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$A$4:$G$8</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>Id</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Number</t>
+  </si>
+  <si>
     <t>StrArray</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string[]</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
   </si>
   <si>
     <t>Name/名字</t>
+  </si>
+  <si>
+    <t>数据测试</t>
   </si>
   <si>
     <t>ArrayTest/测试数组</t>
@@ -817,6 +826,877 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" defTabSz="914400">
+              <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>演示图表</a:t>
+            </a:r>
+            <a:endParaRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" c:formatCode="General">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>9888</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>3534</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="917533985"/>
+        <c:axId val="693762926"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="917533985"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693762926"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="693762926"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917533985"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>968375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2082800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8235950" y="1993900"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1146,27 +2026,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="2" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,122 +2062,150 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1024</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>2048</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>9888</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>3534</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F8"/>
+  <autoFilter ref="A3:G8"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/KEngine.UnityProject/Product/SettingSource/Example.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Example.xlsx
@@ -12,15 +12,39 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$G$8</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$A$4:$G$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$8</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$A$4:$H$8</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>mrkelly</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">mrkelly:
+主键可以是数字，也可以任何字符串。这里示例一个由两个列组合的主键</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>Id</t>
   </si>
@@ -28,6 +52,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>KeyString</t>
+  </si>
+  <si>
     <t>Number</t>
   </si>
   <si>
@@ -43,9 +70,6 @@
     <t>#B</t>
   </si>
   <si>
-    <t>int/0/pk</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -61,12 +85,15 @@
     <t>map[string]int</t>
   </si>
   <si>
-    <t>ID Column/编号</t>
+    <t>ID Column/编号/主键</t>
   </si>
   <si>
     <t>Name/名字</t>
   </si>
   <si>
+    <t>用于组合成Id主键</t>
+  </si>
+  <si>
     <t>数据测试</t>
   </si>
   <si>
@@ -85,6 +112,9 @@
     <t>Test1</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>1,2,3,4,5,6,7,8,9</t>
   </si>
   <si>
@@ -94,6 +124,9 @@
     <t>Test2</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>a,b,c</t>
   </si>
   <si>
@@ -103,6 +136,9 @@
     <t>中文</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>d,e,f</t>
   </si>
   <si>
@@ -113,6 +149,9 @@
   </si>
   <si>
     <t>一个单词</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>g,h,z,e,g,o,i,p</t>
@@ -921,7 +960,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$9</c:f>
+              <c:f>Sheet1!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1666,16 +1705,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>968375</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>287020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2082800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1287145</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1683,8 +1722,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8235950" y="1993900"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="287020" y="2593975"/>
+        <a:ext cx="6438900" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2026,27 +2065,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="29.375" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="2" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2065,32 +2104,38 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -2109,103 +2154,123 @@
       <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:6">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A8" si="0">C4&amp;"_"&amp;D4</f>
+        <v>A_1024</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
         <v>1024</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>2</v>
+    <row r="5" spans="1:6">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>B_2048</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
         <v>2048</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>3</v>
+    <row r="6" spans="1:5">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>C_9888</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
         <v>9888</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
+      <c r="E6" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>4</v>
+    <row r="8" spans="1:6">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>D_3534</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
         <v>3534</v>
       </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G8"/>
+  <autoFilter ref="A3:H8"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/KEngine.UnityProject/Product/SettingSource/Example.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$9</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$A$4:$H$8</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -133,7 +133,7 @@
     <t>A:12,B:43,C:1024</t>
   </si>
   <si>
-    <t>中文</t>
+    <t>中文123</t>
   </si>
   <si>
     <t>C</t>
@@ -172,8 +172,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -196,30 +196,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -235,12 +245,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
@@ -248,27 +252,22 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -280,22 +279,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -308,14 +300,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -335,7 +335,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,49 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,26 +470,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +505,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -529,17 +529,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,11 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2072,7 +2072,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
+        <f>C6&amp;"_"&amp;D6</f>
         <v>C_9888</v>
       </c>
       <c r="B6" t="s">
@@ -2265,7 +2265,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H8"/>
+  <autoFilter ref="A3:H9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>

--- a/KEngine.UnityProject/Product/SettingSource/Example.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Example.xlsx
@@ -2072,7 +2072,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/KEngine.UnityProject/Product/SettingSource/Example.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Example.xlsx
@@ -133,7 +133,7 @@
     <t>A:12,B:43,C:1024</t>
   </si>
   <si>
-    <t>中文123</t>
+    <t>中文1</t>
   </si>
   <si>
     <t>C</t>
@@ -886,41 +886,57 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" defTabSz="914400">
-              <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:rPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="100" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>演示图表</a:t>
             </a:r>
-            <a:endParaRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:endParaRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="100" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -949,15 +965,97 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" rotWithShape="0">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="63000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$4:$D$9</c:f>
@@ -995,8 +1093,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="917533985"/>
         <c:axId val="693762926"/>
       </c:barChart>
@@ -1013,11 +1111,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1031,9 +1129,8 @@
             <a:pPr>
               <a:defRPr sz="900" kern="1200">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1063,9 +1160,9 @@
             <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1091,9 +1188,8 @@
             <a:pPr>
               <a:defRPr sz="900" kern="1200">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1120,17 +1216,27 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1141,7 +1247,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN" sz="1000" kern="1200">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="dk1"/>
           </a:solidFill>
           <a:latin typeface="+mn-lt"/>
           <a:ea typeface="+mn-ea"/>
@@ -1199,35 +1305,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1235,26 +1339,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1263,9 +1375,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1284,14 +1395,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1300,35 +1403,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1340,30 +1443,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1379,21 +1483,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1403,20 +1504,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1427,17 +1528,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1446,14 +1547,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1465,28 +1565,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1498,111 +1592,118 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1614,12 +1715,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1628,14 +1736,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1644,9 +1751,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1656,7 +1762,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1664,9 +1770,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1677,9 +1783,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1689,14 +1794,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2072,7 +2171,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/KEngine.UnityProject/Product/SettingSource/Example.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Example.xlsx
@@ -133,7 +133,7 @@
     <t>A:12,B:43,C:1024</t>
   </si>
   <si>
-    <t>中文1</t>
+    <t>中文123</t>
   </si>
   <si>
     <t>C</t>
@@ -2171,7 +2171,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/KEngine.UnityProject/Product/SettingSource/Example.xlsx
+++ b/KEngine.UnityProject/Product/SettingSource/Example.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>Id</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>井号开头的，注释行</t>
+  </si>
+  <si>
+    <t>随意字符</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -171,9 +177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -195,6 +201,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
@@ -208,46 +254,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -260,7 +288,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -279,34 +307,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -315,7 +321,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -335,48 +341,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,13 +353,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,13 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,11 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,28 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,17 +554,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2164,14 +2170,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2304,7 +2310,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="str">
-        <f>C6&amp;"_"&amp;D6</f>
+        <f t="shared" si="0"/>
         <v>C_9888</v>
       </c>
       <c r="B6" t="s">
@@ -2361,6 +2367,21 @@
       </c>
       <c r="D9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="str">
+        <f>C10&amp;"_"&amp;D10</f>
+        <v>E_1231232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>1231232</v>
       </c>
     </row>
   </sheetData>
